--- a/info/mmc2.xlsx
+++ b/info/mmc2.xlsx
@@ -1170,11 +1170,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1515,7 +1516,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1547,18 +1548,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1624,31 +1625,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4341,7 +4338,7 @@
       <selection pane="topLeft" activeCell="H48" activeCellId="0" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -4352,7 +4349,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5834,7 +5830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5844,24 +5840,24 @@
       <selection pane="topLeft" activeCell="V9" activeCellId="0" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="9" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="10" style="9" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="13" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="8" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="8" width="0.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="21" style="9" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="21" style="9" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="24" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8914,7 +8910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8924,10 +8920,10 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17403,37 +17399,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F74" activeCellId="0" sqref="F74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="23" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="3.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="23" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="23" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="23" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="23" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="23" width="5.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="23" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="23" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="23" width="5.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="19" style="23" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="23" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="23" width="3.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="23" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="23" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="23" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="23" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="23" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="23" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="23" width="4.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="23" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="23" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="23" width="10.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="23" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="23" width="3.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="23" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17450,28 +17447,28 @@
       <c r="E2" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="X2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="AA2" s="23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -17491,32 +17488,36 @@
       <c r="F3" s="23" t="n">
         <v>58</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="23" t="n">
+        <f aca="false">F3</f>
+        <v>58</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="29"/>
       <c r="J3" s="29"/>
-      <c r="K3" s="29" t="n">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="n">
         <v>19</v>
       </c>
-      <c r="L3" s="29" t="n">
+      <c r="M3" s="29" t="n">
         <v>39</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="23" t="n">
-        <f aca="false">SUM(I3:M3)</f>
+      <c r="N3" s="29"/>
+      <c r="O3" s="23" t="n">
+        <f aca="false">SUM(J3:N3)</f>
         <v>58</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="X3" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="X3" s="23" t="n">
+      <c r="Y3" s="23" t="n">
         <v>58</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="AA3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AA3" s="23" t="n">
+      <c r="AB3" s="23" t="n">
         <v>7</v>
       </c>
     </row>
@@ -17536,30 +17537,34 @@
       <c r="F4" s="23" t="n">
         <v>24</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="G4" s="23" t="n">
+        <f aca="false">G3+F4</f>
+        <v>82</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="29"/>
       <c r="J4" s="29"/>
-      <c r="K4" s="29" t="n">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29" t="n">
         <v>24</v>
       </c>
-      <c r="L4" s="29"/>
       <c r="M4" s="29"/>
-      <c r="N4" s="23" t="n">
-        <f aca="false">SUM(I4:M4)</f>
+      <c r="N4" s="29"/>
+      <c r="O4" s="23" t="n">
+        <f aca="false">SUM(J4:N4)</f>
         <v>24</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="X4" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="23" t="n">
+      <c r="Y4" s="23" t="n">
         <v>24</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="AA4" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AA4" s="23" t="n">
+      <c r="AB4" s="23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17579,34 +17584,38 @@
       <c r="F5" s="23" t="n">
         <v>91</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="23" t="n">
+        <f aca="false">G4+F5</f>
+        <v>173</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="29"/>
       <c r="J5" s="29"/>
-      <c r="K5" s="29" t="n">
+      <c r="K5" s="29"/>
+      <c r="L5" s="29" t="n">
         <v>62</v>
       </c>
-      <c r="L5" s="29" t="n">
+      <c r="M5" s="29" t="n">
         <v>19</v>
       </c>
-      <c r="M5" s="29" t="n">
+      <c r="N5" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="N5" s="23" t="n">
-        <f aca="false">SUM(I5:M5)</f>
+      <c r="O5" s="23" t="n">
+        <f aca="false">SUM(J5:N5)</f>
         <v>91</v>
       </c>
-      <c r="W5" s="23" t="s">
+      <c r="X5" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="X5" s="23" t="n">
+      <c r="Y5" s="23" t="n">
         <v>91</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA5" s="23" t="n">
+      <c r="AB5" s="23" t="n">
         <v>104</v>
       </c>
     </row>
@@ -17626,31 +17635,35 @@
       <c r="F6" s="23" t="n">
         <v>72</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="23" t="n">
+        <f aca="false">G5+F6</f>
+        <v>245</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="29"/>
       <c r="J6" s="29"/>
-      <c r="K6" s="29" t="n">
-        <f aca="false">X6</f>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29" t="n">
+        <f aca="false">Y6</f>
         <v>52</v>
       </c>
-      <c r="L6" s="29"/>
       <c r="M6" s="29"/>
-      <c r="N6" s="23" t="n">
-        <f aca="false">SUM(I6:M6)</f>
+      <c r="N6" s="29"/>
+      <c r="O6" s="23" t="n">
+        <f aca="false">SUM(J6:N6)</f>
         <v>52</v>
       </c>
-      <c r="W6" s="23" t="s">
+      <c r="X6" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="X6" s="23" t="n">
+      <c r="Y6" s="23" t="n">
         <v>52</v>
       </c>
-      <c r="Z6" s="23" t="s">
+      <c r="AA6" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="AA6" s="23" t="n">
+      <c r="AB6" s="23" t="n">
         <v>26</v>
       </c>
     </row>
@@ -17666,36 +17679,40 @@
       <c r="F7" s="23" t="n">
         <v>52</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="23" t="n">
+        <f aca="false">G6+F7</f>
+        <v>297</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="I7" s="29" t="n">
-        <v>8</v>
       </c>
       <c r="J7" s="29" t="n">
         <v>8</v>
       </c>
       <c r="K7" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" s="29" t="n">
         <v>48</v>
       </c>
-      <c r="L7" s="29" t="n">
+      <c r="M7" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="23" t="n">
-        <f aca="false">SUM(I7:M7)</f>
+      <c r="N7" s="29"/>
+      <c r="O7" s="23" t="n">
+        <f aca="false">SUM(J7:N7)</f>
         <v>72</v>
       </c>
-      <c r="W7" s="23" t="s">
+      <c r="X7" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="X7" s="23" t="n">
+      <c r="Y7" s="23" t="n">
         <v>72</v>
       </c>
-      <c r="Z7" s="23" t="s">
+      <c r="AA7" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AA7" s="23" t="n">
+      <c r="AB7" s="23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17715,34 +17732,37 @@
       <c r="F8" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="23" t="n">
+        <f aca="false">G7+F8</f>
+        <v>338</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="29" t="n">
+      <c r="J8" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29" t="n">
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="n">
         <v>19</v>
       </c>
-      <c r="L8" s="29" t="n">
+      <c r="M8" s="29" t="n">
         <v>14</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="23" t="n">
-        <f aca="false">SUM(I8:M8)</f>
+      <c r="N8" s="29"/>
+      <c r="O8" s="23" t="n">
+        <f aca="false">SUM(J8:N8)</f>
         <v>41</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="Y8" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="30"/>
+      <c r="Z8" s="2"/>
       <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
@@ -17760,46 +17780,49 @@
       <c r="F9" s="32" t="n">
         <v>28</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="I9" s="23" t="n">
-        <f aca="false">SUM(I3:I8)</f>
-        <v>16</v>
+      <c r="G9" s="23" t="n">
+        <f aca="false">G8+F9</f>
+        <v>366</v>
       </c>
       <c r="J9" s="23" t="n">
         <f aca="false">SUM(J3:J8)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K9" s="23" t="n">
         <f aca="false">SUM(K3:K8)</f>
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="L9" s="23" t="n">
         <f aca="false">SUM(L3:L8)</f>
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="M9" s="23" t="n">
         <f aca="false">SUM(M3:M8)</f>
+        <v>80</v>
+      </c>
+      <c r="N9" s="23" t="n">
+        <f aca="false">SUM(N3:N8)</f>
         <v>10</v>
       </c>
-      <c r="N9" s="25" t="n">
-        <f aca="false">SUM(I9:M9)</f>
+      <c r="O9" s="25" t="n">
+        <f aca="false">SUM(J9:N9)</f>
         <v>338</v>
       </c>
-      <c r="O9" s="33" t="n">
+      <c r="P9" s="33" t="n">
         <f aca="false">SUM(F3:F8)</f>
         <v>338</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="X9" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="X9" s="32" t="n">
+      <c r="Y9" s="32" t="n">
         <v>69</v>
       </c>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32" t="s">
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="AA9" s="34" t="n">
+      <c r="AB9" s="34" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17819,17 +17842,21 @@
       <c r="F10" s="23" t="n">
         <v>104</v>
       </c>
-      <c r="N10" s="0"/>
-      <c r="W10" s="23" t="s">
+      <c r="G10" s="23" t="n">
+        <f aca="false">G9+F10</f>
+        <v>470</v>
+      </c>
+      <c r="O10" s="0"/>
+      <c r="X10" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="X10" s="23" t="n">
+      <c r="Y10" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="AA10" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA10" s="36" t="n">
+      <c r="AB10" s="36" t="n">
         <v>128</v>
       </c>
     </row>
@@ -17845,49 +17872,53 @@
       <c r="F11" s="23" t="n">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="23" t="n">
+        <f aca="false">G10+F11</f>
+        <v>531</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="J11" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="K11" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="L11" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="M11" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="N11" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="P11" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="Q11" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="R11" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="S11" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="W11" s="23" t="s">
+      <c r="X11" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="X11" s="23" t="n">
+      <c r="Y11" s="23" t="n">
         <v>179</v>
       </c>
-      <c r="Z11" s="23" t="s">
+      <c r="AA11" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="AA11" s="36" t="n">
+      <c r="AB11" s="36" t="n">
         <v>4106</v>
       </c>
     </row>
@@ -17907,41 +17938,45 @@
       <c r="F12" s="23" t="n">
         <v>175</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="G12" s="23" t="n">
+        <f aca="false">G11+F12</f>
+        <v>706</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29" t="n">
+      <c r="J12" s="29"/>
+      <c r="K12" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29" t="n">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26" t="n">
+      <c r="N12" s="29"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="P12" s="26" t="n">
+      <c r="Q12" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="Q12" s="26" t="n">
+      <c r="R12" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="26" t="n">
+      <c r="S12" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="W12" s="23" t="s">
+      <c r="X12" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="23" t="n">
+      <c r="Y12" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="Z12" s="23" t="s">
+      <c r="AA12" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="AA12" s="36" t="n">
+      <c r="AB12" s="36" t="n">
         <v>104</v>
       </c>
     </row>
@@ -17961,29 +17996,33 @@
       <c r="F13" s="23" t="n">
         <v>456</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="G13" s="23" t="n">
+        <f aca="false">G12+F13</f>
+        <v>1162</v>
+      </c>
+      <c r="I13" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="26"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
-      <c r="W13" s="23" t="s">
+      <c r="S13" s="26"/>
+      <c r="X13" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="X13" s="23" t="n">
+      <c r="Y13" s="23" t="n">
         <v>108</v>
       </c>
-      <c r="Z13" s="23" t="s">
+      <c r="AA13" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AA13" s="36" t="n">
+      <c r="AB13" s="36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18003,29 +18042,33 @@
       <c r="F14" s="23" t="n">
         <v>333</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="G14" s="23" t="n">
+        <f aca="false">G13+F14</f>
+        <v>1495</v>
+      </c>
+      <c r="I14" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="26"/>
+      <c r="N14" s="29"/>
       <c r="O14" s="26"/>
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
-      <c r="W14" s="23" t="s">
+      <c r="S14" s="26"/>
+      <c r="X14" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="X14" s="23" t="n">
+      <c r="Y14" s="23" t="n">
         <v>67</v>
       </c>
-      <c r="Z14" s="23" t="s">
+      <c r="AA14" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AA14" s="36" t="n">
+      <c r="AB14" s="36" t="n">
         <v>149</v>
       </c>
     </row>
@@ -18045,29 +18088,33 @@
       <c r="F15" s="23" t="n">
         <v>268</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="G15" s="23" t="n">
+        <f aca="false">G14+F15</f>
+        <v>1763</v>
+      </c>
+      <c r="I15" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="26"/>
+      <c r="N15" s="29"/>
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
-      <c r="W15" s="23" t="s">
+      <c r="S15" s="26"/>
+      <c r="X15" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="X15" s="23" t="n">
+      <c r="Y15" s="23" t="n">
         <v>24</v>
       </c>
-      <c r="Z15" s="23" t="s">
+      <c r="AA15" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA15" s="36" t="n">
+      <c r="AB15" s="36" t="n">
         <v>44</v>
       </c>
     </row>
@@ -18087,29 +18134,33 @@
       <c r="F16" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="G16" s="23" t="n">
+        <f aca="false">G15+F16</f>
+        <v>1819</v>
+      </c>
+      <c r="I16" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="26"/>
+      <c r="N16" s="29"/>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
-      <c r="W16" s="23" t="s">
+      <c r="S16" s="26"/>
+      <c r="X16" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="X16" s="23" t="n">
+      <c r="Y16" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="Z16" s="23" t="s">
+      <c r="AA16" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AA16" s="36" t="n">
+      <c r="AB16" s="36" t="n">
         <v>308</v>
       </c>
     </row>
@@ -18129,29 +18180,33 @@
       <c r="F17" s="23" t="n">
         <v>5877</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="G17" s="23" t="n">
+        <f aca="false">G16+F17</f>
+        <v>7696</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="26"/>
+      <c r="N17" s="29"/>
       <c r="O17" s="26"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
-      <c r="W17" s="23" t="s">
+      <c r="S17" s="26"/>
+      <c r="X17" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="X17" s="23" t="n">
+      <c r="Y17" s="23" t="n">
         <v>3456</v>
       </c>
-      <c r="Z17" s="23" t="s">
+      <c r="AA17" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AA17" s="36" t="n">
+      <c r="AB17" s="36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18171,31 +18226,34 @@
       <c r="F18" s="38" t="n">
         <v>166</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="35" t="s">
+      <c r="G18" s="23" t="n">
+        <f aca="false">G17+F18</f>
+        <v>7862</v>
+      </c>
+      <c r="I18" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
-      <c r="P18" s="27"/>
+      <c r="P18" s="39"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="W18" s="38" t="s">
+      <c r="S18" s="27"/>
+      <c r="X18" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="X18" s="38" t="n">
+      <c r="Y18" s="38" t="n">
         <v>131</v>
       </c>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38" t="s">
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="AA18" s="40" t="n">
+      <c r="AB18" s="40" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18209,29 +18267,33 @@
       <c r="F19" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="G19" s="23" t="n">
+        <f aca="false">G18+F19</f>
+        <v>7870</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="I19" s="39"/>
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
       <c r="N19" s="39"/>
       <c r="O19" s="39"/>
-      <c r="P19" s="27"/>
+      <c r="P19" s="39"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
-      <c r="W19" s="23" t="s">
+      <c r="S19" s="27"/>
+      <c r="X19" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="X19" s="23" t="n">
+      <c r="Y19" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="Z19" s="23" t="s">
+      <c r="AA19" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AA19" s="23" t="n">
+      <c r="AB19" s="23" t="n">
         <v>29</v>
       </c>
     </row>
@@ -18245,10 +18307,13 @@
       <c r="F20" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="G20" s="23" t="n">
+        <f aca="false">G19+F20</f>
+        <v>7890</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -18258,16 +18323,17 @@
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
-      <c r="W20" s="23" t="s">
+      <c r="S20" s="27"/>
+      <c r="X20" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="X20" s="23" t="n">
+      <c r="Y20" s="23" t="n">
         <v>96</v>
       </c>
-      <c r="Z20" s="23" t="s">
+      <c r="AA20" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA20" s="23" t="n">
+      <c r="AB20" s="23" t="n">
         <v>122</v>
       </c>
     </row>
@@ -18281,10 +18347,13 @@
       <c r="F21" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="G21" s="23" t="n">
+        <f aca="false">G20+F21</f>
+        <v>7898</v>
+      </c>
+      <c r="I21" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
@@ -18294,16 +18363,17 @@
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
-      <c r="W21" s="23" t="s">
+      <c r="S21" s="27"/>
+      <c r="X21" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="X21" s="23" t="n">
+      <c r="Y21" s="23" t="n">
         <v>122</v>
       </c>
-      <c r="Z21" s="23" t="s">
+      <c r="AA21" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="AA21" s="23" t="n">
+      <c r="AB21" s="23" t="n">
         <v>5462</v>
       </c>
     </row>
@@ -18317,40 +18387,44 @@
       <c r="F22" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="G22" s="23" t="n">
+        <f aca="false">G21+F22</f>
+        <v>7938</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="23" t="n">
+      <c r="J22" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="L22" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="23" t="n">
+      <c r="M22" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="O22" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="O22" s="23" t="n">
+      <c r="P22" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="R22" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="R22" s="23" t="n">
+      <c r="S22" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="W22" s="23" t="s">
+      <c r="X22" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="X22" s="23" t="n">
+      <c r="Y22" s="23" t="n">
         <v>118</v>
       </c>
-      <c r="Z22" s="23" t="s">
+      <c r="AA22" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="AA22" s="23" t="n">
+      <c r="AB22" s="23" t="n">
         <v>53</v>
       </c>
     </row>
@@ -18364,40 +18438,44 @@
       <c r="F23" s="23" t="n">
         <v>122</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="G23" s="23" t="n">
+        <f aca="false">G22+F23</f>
+        <v>8060</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="23" t="n">
+      <c r="J23" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="L23" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="L23" s="23" t="n">
+      <c r="M23" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="O23" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="O23" s="23" t="n">
+      <c r="P23" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="R23" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="R23" s="23" t="n">
+      <c r="S23" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="W23" s="23" t="s">
+      <c r="X23" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="X23" s="23" t="n">
+      <c r="Y23" s="23" t="n">
         <v>406</v>
       </c>
-      <c r="Z23" s="23" t="s">
+      <c r="AA23" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="AA23" s="23" t="n">
+      <c r="AB23" s="23" t="n">
         <v>12</v>
       </c>
     </row>
@@ -18411,40 +18489,44 @@
       <c r="F24" s="23" t="n">
         <v>118</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="G24" s="23" t="n">
+        <f aca="false">G23+F24</f>
+        <v>8178</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="23" t="n">
+      <c r="J24" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="L24" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="L24" s="23" t="n">
+      <c r="M24" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="O24" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="O24" s="23" t="n">
+      <c r="P24" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="Q24" s="23" t="s">
+      <c r="R24" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="R24" s="23" t="n">
+      <c r="S24" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="W24" s="23" t="s">
+      <c r="X24" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="X24" s="23" t="n">
+      <c r="Y24" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="Z24" s="23" t="s">
+      <c r="AA24" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AA24" s="23" t="n">
+      <c r="AB24" s="23" t="n">
         <v>12</v>
       </c>
     </row>
@@ -18458,40 +18540,44 @@
       <c r="F25" s="23" t="n">
         <v>96</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="G25" s="23" t="n">
+        <f aca="false">G24+F25</f>
+        <v>8274</v>
+      </c>
+      <c r="I25" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="I25" s="23" t="n">
+      <c r="J25" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="L25" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="23" t="n">
+      <c r="M25" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="O25" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="O25" s="23" t="n">
+      <c r="P25" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="Q25" s="23" t="s">
+      <c r="R25" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="R25" s="23" t="n">
+      <c r="S25" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="W25" s="23" t="s">
+      <c r="X25" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="X25" s="23" t="n">
+      <c r="Y25" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="Z25" s="23" t="s">
+      <c r="AA25" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AA25" s="23" t="n">
+      <c r="AB25" s="23" t="n">
         <v>125</v>
       </c>
     </row>
@@ -18505,40 +18591,44 @@
       <c r="F26" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="G26" s="23" t="n">
+        <f aca="false">G25+F26</f>
+        <v>8280</v>
+      </c>
+      <c r="I26" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I26" s="23" t="n">
+      <c r="J26" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="L26" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="L26" s="23" t="n">
+      <c r="M26" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="O26" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="O26" s="23" t="n">
+      <c r="P26" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="R26" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="R26" s="23" t="n">
+      <c r="S26" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="W26" s="23" t="s">
+      <c r="X26" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="X26" s="23" t="n">
+      <c r="Y26" s="23" t="n">
         <v>1098</v>
       </c>
-      <c r="Z26" s="23" t="s">
+      <c r="AA26" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA26" s="23" t="n">
+      <c r="AB26" s="23" t="n">
         <v>23</v>
       </c>
     </row>
@@ -18549,40 +18639,44 @@
       <c r="F27" s="23" t="n">
         <v>2674</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="G27" s="23" t="n">
+        <f aca="false">G26+F27</f>
+        <v>10954</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="23" t="n">
+      <c r="J27" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="L27" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="L27" s="23" t="n">
+      <c r="M27" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="O27" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="O27" s="23" t="n">
+      <c r="P27" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="Q27" s="23" t="s">
+      <c r="R27" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="R27" s="23" t="n">
+      <c r="S27" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="W27" s="23" t="s">
+      <c r="X27" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="X27" s="23" t="n">
+      <c r="Y27" s="23" t="n">
         <v>2674</v>
       </c>
-      <c r="Z27" s="23" t="s">
+      <c r="AA27" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AA27" s="23" t="n">
+      <c r="AB27" s="23" t="n">
         <v>208</v>
       </c>
     </row>
@@ -18593,40 +18687,44 @@
       <c r="F28" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="G28" s="23" t="n">
+        <f aca="false">G27+F28</f>
+        <v>11014</v>
+      </c>
+      <c r="I28" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="23" t="n">
+      <c r="J28" s="23" t="n">
         <v>23</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="L28" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="L28" s="23" t="n">
+      <c r="M28" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="O28" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="O28" s="23" t="n">
+      <c r="P28" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="Q28" s="23" t="s">
+      <c r="R28" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="R28" s="23" t="n">
+      <c r="S28" s="23" t="n">
         <v>3174</v>
       </c>
-      <c r="W28" s="23" t="s">
+      <c r="X28" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="X28" s="23" t="n">
+      <c r="Y28" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="Z28" s="23" t="s">
+      <c r="AA28" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AA28" s="23" t="n">
+      <c r="AB28" s="23" t="n">
         <v>11</v>
       </c>
     </row>
@@ -18637,40 +18735,44 @@
       <c r="F29" s="23" t="n">
         <v>1098</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="G29" s="23" t="n">
+        <f aca="false">G28+F29</f>
+        <v>12112</v>
+      </c>
+      <c r="I29" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="I29" s="23" t="n">
+      <c r="J29" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="L29" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="L29" s="23" t="n">
+      <c r="M29" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="N29" s="23" t="s">
+      <c r="O29" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="O29" s="23" t="n">
+      <c r="P29" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="Q29" s="23" t="s">
+      <c r="R29" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="R29" s="23" t="n">
+      <c r="S29" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="W29" s="23" t="s">
+      <c r="X29" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="X29" s="23" t="n">
+      <c r="Y29" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="Z29" s="23" t="s">
+      <c r="AA29" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AA29" s="23" t="n">
+      <c r="AB29" s="23" t="n">
         <v>24</v>
       </c>
     </row>
@@ -18681,34 +18783,38 @@
       <c r="F30" s="23" t="n">
         <v>406</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="G30" s="23" t="n">
+        <f aca="false">G29+F30</f>
+        <v>12518</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="23" t="n">
+      <c r="J30" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="L30" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L30" s="23" t="n">
+      <c r="M30" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="O30" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="O30" s="23" t="n">
+      <c r="P30" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="Q30" s="23" t="s">
+      <c r="R30" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="R30" s="23" t="n">
+      <c r="S30" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="W30" s="23" t="s">
+      <c r="X30" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X30" s="23" t="n">
+      <c r="Y30" s="23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -18719,42 +18825,45 @@
       <c r="F31" s="32" t="n">
         <v>34</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="23" t="s">
+      <c r="G31" s="23" t="n">
+        <f aca="false">G30+F31</f>
+        <v>12552</v>
+      </c>
+      <c r="I31" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="I31" s="23" t="n">
+      <c r="J31" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="L31" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="L31" s="23" t="n">
+      <c r="M31" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="N31" s="23" t="s">
+      <c r="O31" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="O31" s="23" t="n">
+      <c r="P31" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="Q31" s="23" t="s">
+      <c r="R31" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="R31" s="23" t="n">
+      <c r="S31" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="W31" s="32" t="s">
+      <c r="X31" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="X31" s="32" t="n">
+      <c r="Y31" s="32" t="n">
         <v>96</v>
       </c>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32" t="s">
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="AA31" s="34" t="n">
+      <c r="AB31" s="34" t="n">
         <v>77</v>
       </c>
     </row>
@@ -18765,40 +18874,44 @@
       <c r="F32" s="23" t="n">
         <v>76</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="G32" s="23" t="n">
+        <f aca="false">G31+F32</f>
+        <v>12628</v>
+      </c>
+      <c r="I32" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="I32" s="23" t="n">
+      <c r="J32" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="L32" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="L32" s="23" t="n">
+      <c r="M32" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="N32" s="23" t="s">
+      <c r="O32" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="O32" s="23" t="n">
+      <c r="P32" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="Q32" s="23" t="s">
+      <c r="R32" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="R32" s="23" t="n">
+      <c r="S32" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="W32" s="23" t="s">
+      <c r="X32" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="X32" s="23" t="n">
+      <c r="Y32" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="Z32" s="23" t="s">
+      <c r="AA32" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA32" s="36" t="n">
+      <c r="AB32" s="36" t="n">
         <v>152</v>
       </c>
     </row>
@@ -18809,40 +18922,44 @@
       <c r="F33" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="G33" s="23" t="n">
+        <f aca="false">G32+F33</f>
+        <v>12647</v>
+      </c>
+      <c r="I33" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="I33" s="23" t="n">
+      <c r="J33" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="L33" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="L33" s="23" t="n">
+      <c r="M33" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="N33" s="23" t="s">
+      <c r="O33" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="O33" s="23" t="n">
+      <c r="P33" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="Q33" s="23" t="s">
+      <c r="R33" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="R33" s="23" t="n">
+      <c r="S33" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="W33" s="23" t="s">
+      <c r="X33" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="X33" s="23" t="n">
+      <c r="Y33" s="23" t="n">
         <v>210</v>
       </c>
-      <c r="Z33" s="23" t="s">
+      <c r="AA33" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="AA33" s="36" t="n">
+      <c r="AB33" s="36" t="n">
         <v>5329</v>
       </c>
     </row>
@@ -18853,40 +18970,44 @@
       <c r="F34" s="23" t="n">
         <v>96</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="G34" s="23" t="n">
+        <f aca="false">G33+F34</f>
+        <v>12743</v>
+      </c>
+      <c r="I34" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="I34" s="23" t="n">
+      <c r="J34" s="23" t="n">
         <v>23</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="L34" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="L34" s="23" t="n">
+      <c r="M34" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="O34" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="O34" s="23" t="n">
+      <c r="P34" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="Q34" s="23" t="s">
+      <c r="R34" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="R34" s="23" t="n">
+      <c r="S34" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="W34" s="23" t="s">
+      <c r="X34" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="X34" s="23" t="n">
+      <c r="Y34" s="23" t="n">
         <v>302</v>
       </c>
-      <c r="Z34" s="23" t="s">
+      <c r="AA34" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="AA34" s="36" t="n">
+      <c r="AB34" s="36" t="n">
         <v>61</v>
       </c>
     </row>
@@ -18897,40 +19018,44 @@
       <c r="F35" s="23" t="n">
         <v>210</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="G35" s="23" t="n">
+        <f aca="false">G34+F35</f>
+        <v>12953</v>
+      </c>
+      <c r="I35" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="I35" s="23" t="n">
+      <c r="J35" s="23" t="n">
         <v>23</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="L35" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="L35" s="23" t="n">
+      <c r="M35" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="N35" s="23" t="s">
+      <c r="O35" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="O35" s="23" t="n">
+      <c r="P35" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="Q35" s="23" t="s">
+      <c r="R35" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="R35" s="23" t="n">
+      <c r="S35" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="W35" s="23" t="s">
+      <c r="X35" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="X35" s="23" t="n">
+      <c r="Y35" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="Z35" s="23" t="s">
+      <c r="AA35" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="AA35" s="36" t="n">
+      <c r="AB35" s="36" t="n">
         <v>33</v>
       </c>
     </row>
@@ -18941,40 +19066,44 @@
       <c r="F36" s="23" t="n">
         <v>395</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="G36" s="23" t="n">
+        <f aca="false">G35+F36</f>
+        <v>13348</v>
+      </c>
+      <c r="I36" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="I36" s="23" t="n">
+      <c r="J36" s="23" t="n">
         <v>61</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="L36" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="L36" s="23" t="n">
+      <c r="M36" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="N36" s="23" t="s">
+      <c r="O36" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="O36" s="23" t="n">
+      <c r="P36" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="Q36" s="23" t="s">
+      <c r="R36" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="R36" s="23" t="n">
+      <c r="S36" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="W36" s="23" t="s">
+      <c r="X36" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="X36" s="23" t="n">
+      <c r="Y36" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="Z36" s="23" t="s">
+      <c r="AA36" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AA36" s="36" t="n">
+      <c r="AB36" s="36" t="n">
         <v>35</v>
       </c>
     </row>
@@ -18985,40 +19114,44 @@
       <c r="F37" s="23" t="n">
         <v>201</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="G37" s="23" t="n">
+        <f aca="false">G36+F37</f>
+        <v>13549</v>
+      </c>
+      <c r="I37" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="I37" s="23" t="n">
+      <c r="J37" s="23" t="n">
         <v>70</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="L37" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="L37" s="23" t="n">
+      <c r="M37" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="N37" s="23" t="s">
+      <c r="O37" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="O37" s="23" t="n">
+      <c r="P37" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="Q37" s="23" t="s">
+      <c r="R37" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="R37" s="23" t="n">
+      <c r="S37" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="W37" s="23" t="s">
+      <c r="X37" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="X37" s="23" t="n">
+      <c r="Y37" s="23" t="n">
         <v>201</v>
       </c>
-      <c r="Z37" s="23" t="s">
+      <c r="AA37" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AA37" s="36" t="n">
+      <c r="AB37" s="36" t="n">
         <v>88</v>
       </c>
     </row>
@@ -19029,40 +19162,44 @@
       <c r="F38" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="G38" s="23" t="n">
+        <f aca="false">G37+F38</f>
+        <v>13557</v>
+      </c>
+      <c r="I38" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="I38" s="23" t="n">
+      <c r="J38" s="23" t="n">
         <v>32</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="L38" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="L38" s="23" t="n">
+      <c r="M38" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="N38" s="23" t="s">
+      <c r="O38" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="O38" s="23" t="n">
+      <c r="P38" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="Q38" s="23" t="s">
+      <c r="R38" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="R38" s="23" t="n">
+      <c r="S38" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="W38" s="23" t="s">
+      <c r="X38" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="X38" s="23" t="n">
+      <c r="Y38" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="Z38" s="23" t="s">
+      <c r="AA38" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA38" s="36" t="n">
+      <c r="AB38" s="36" t="n">
         <v>171</v>
       </c>
     </row>
@@ -19073,40 +19210,44 @@
       <c r="F39" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="G39" s="23" t="n">
+        <f aca="false">G38+F39</f>
+        <v>13582</v>
+      </c>
+      <c r="I39" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="I39" s="23" t="n">
+      <c r="J39" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="L39" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="L39" s="23" t="n">
+      <c r="M39" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="N39" s="23" t="s">
+      <c r="O39" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="O39" s="23" t="n">
+      <c r="P39" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="Q39" s="23" t="s">
+      <c r="R39" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="R39" s="23" t="n">
+      <c r="S39" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="W39" s="23" t="s">
+      <c r="X39" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="X39" s="23" t="n">
+      <c r="Y39" s="23" t="n">
         <v>76</v>
       </c>
-      <c r="Z39" s="23" t="s">
+      <c r="AA39" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AA39" s="36" t="n">
+      <c r="AB39" s="36" t="n">
         <v>370</v>
       </c>
     </row>
@@ -19117,40 +19258,44 @@
       <c r="F40" s="23" t="n">
         <v>302</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="G40" s="23" t="n">
+        <f aca="false">G39+F40</f>
+        <v>13884</v>
+      </c>
+      <c r="I40" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="I40" s="23" t="n">
+      <c r="J40" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="L40" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="L40" s="23" t="n">
+      <c r="M40" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="N40" s="23" t="s">
+      <c r="O40" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="O40" s="23" t="n">
+      <c r="P40" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="Q40" s="23" t="s">
+      <c r="R40" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="R40" s="23" t="n">
+      <c r="S40" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="W40" s="23" t="s">
+      <c r="X40" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="X40" s="23" t="n">
+      <c r="Y40" s="23" t="n">
         <v>2403</v>
       </c>
-      <c r="Z40" s="23" t="s">
+      <c r="AA40" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AA40" s="36" t="n">
+      <c r="AB40" s="36" t="n">
         <v>67</v>
       </c>
     </row>
@@ -19161,40 +19306,44 @@
       <c r="F41" s="23" t="n">
         <v>2403</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="G41" s="23" t="n">
+        <f aca="false">G40+F41</f>
+        <v>16287</v>
+      </c>
+      <c r="I41" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="I41" s="23" t="n">
+      <c r="J41" s="23" t="n">
         <v>108</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="L41" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="L41" s="23" t="n">
+      <c r="M41" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="N41" s="23" t="s">
+      <c r="O41" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="O41" s="23" t="n">
+      <c r="P41" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="Q41" s="23" t="s">
+      <c r="R41" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="R41" s="23" t="n">
+      <c r="S41" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="W41" s="23" t="s">
+      <c r="X41" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="X41" s="23" t="n">
+      <c r="Y41" s="23" t="n">
         <v>395</v>
       </c>
-      <c r="Z41" s="23" t="s">
+      <c r="AA41" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AA41" s="36" t="n">
+      <c r="AB41" s="36" t="n">
         <v>70</v>
       </c>
     </row>
@@ -19205,37 +19354,41 @@
       <c r="F42" s="23" t="n">
         <v>2003</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="G42" s="23" t="n">
+        <f aca="false">G41+F42</f>
+        <v>18290</v>
+      </c>
+      <c r="I42" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="I42" s="23" t="n">
+      <c r="J42" s="23" t="n">
         <v>76</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="L42" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="L42" s="23" t="n">
+      <c r="M42" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="N42" s="23" t="s">
+      <c r="O42" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="O42" s="23" t="n">
+      <c r="P42" s="23" t="n">
         <v>37</v>
       </c>
-      <c r="Q42" s="23" t="s">
+      <c r="R42" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="R42" s="23" t="n">
+      <c r="S42" s="23" t="n">
         <v>3476</v>
       </c>
-      <c r="W42" s="23" t="s">
+      <c r="X42" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="X42" s="23" t="n">
+      <c r="Y42" s="23" t="n">
         <v>342</v>
       </c>
-      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="37" t="s">
@@ -19244,40 +19397,43 @@
       <c r="F43" s="38" t="n">
         <v>342</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="23" t="s">
+      <c r="G43" s="23" t="n">
+        <f aca="false">G42+F43</f>
+        <v>18632</v>
+      </c>
+      <c r="I43" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="I43" s="23" t="n">
+      <c r="J43" s="23" t="n">
         <v>188</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="L43" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="L43" s="23" t="n">
+      <c r="M43" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="N43" s="23" t="s">
+      <c r="O43" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="O43" s="23" t="n">
+      <c r="P43" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="Q43" s="23" t="s">
+      <c r="R43" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="R43" s="23" t="n">
+      <c r="S43" s="23" t="n">
         <v>43</v>
       </c>
-      <c r="W43" s="38" t="s">
+      <c r="X43" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="X43" s="38" t="n">
+      <c r="Y43" s="38" t="n">
         <v>2003</v>
       </c>
-      <c r="Y43" s="38"/>
       <c r="Z43" s="38"/>
-      <c r="AA43" s="40"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="40"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="23" t="s">
@@ -19286,40 +19442,44 @@
       <c r="F44" s="23" t="n">
         <v>70</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="G44" s="23" t="n">
+        <f aca="false">G43+F44</f>
+        <v>18702</v>
+      </c>
+      <c r="I44" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="I44" s="23" t="n">
+      <c r="J44" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="L44" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="L44" s="23" t="n">
+      <c r="M44" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="N44" s="23" t="s">
+      <c r="O44" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="O44" s="23" t="n">
+      <c r="P44" s="23" t="n">
         <v>49</v>
       </c>
-      <c r="Q44" s="23" t="s">
+      <c r="R44" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="R44" s="23" t="n">
+      <c r="S44" s="23" t="n">
         <v>42</v>
       </c>
-      <c r="W44" s="23" t="s">
+      <c r="X44" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="X44" s="23" t="n">
+      <c r="Y44" s="23" t="n">
         <v>336</v>
       </c>
-      <c r="Z44" s="23" t="s">
+      <c r="AA44" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AA44" s="23" t="n">
+      <c r="AB44" s="23" t="n">
         <v>69</v>
       </c>
     </row>
@@ -19330,40 +19490,44 @@
       <c r="F45" s="23" t="n">
         <v>3174</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="G45" s="23" t="n">
+        <f aca="false">G44+F45</f>
+        <v>21876</v>
+      </c>
+      <c r="I45" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="I45" s="23" t="n">
+      <c r="J45" s="23" t="n">
         <v>27</v>
       </c>
-      <c r="K45" s="23" t="s">
+      <c r="L45" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="L45" s="23" t="n">
+      <c r="M45" s="23" t="n">
         <v>31</v>
       </c>
-      <c r="N45" s="23" t="s">
+      <c r="O45" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="O45" s="23" t="n">
+      <c r="P45" s="23" t="n">
         <v>37</v>
       </c>
-      <c r="Q45" s="23" t="s">
+      <c r="R45" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="R45" s="23" t="n">
+      <c r="S45" s="23" t="n">
         <v>84</v>
       </c>
-      <c r="W45" s="23" t="s">
+      <c r="X45" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="X45" s="23" t="n">
+      <c r="Y45" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="Z45" s="23" t="s">
+      <c r="AA45" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA45" s="23" t="n">
+      <c r="AB45" s="23" t="n">
         <v>142</v>
       </c>
     </row>
@@ -19374,40 +19538,44 @@
       <c r="F46" s="23" t="n">
         <v>54</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="G46" s="23" t="n">
+        <f aca="false">G45+F46</f>
+        <v>21930</v>
+      </c>
+      <c r="I46" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="I46" s="23" t="n">
+      <c r="J46" s="23" t="n">
         <v>270</v>
       </c>
-      <c r="K46" s="23" t="s">
+      <c r="L46" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="L46" s="23" t="n">
+      <c r="M46" s="23" t="n">
         <v>46</v>
       </c>
-      <c r="N46" s="23" t="s">
+      <c r="O46" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="O46" s="23" t="n">
+      <c r="P46" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="Q46" s="23" t="s">
+      <c r="R46" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="R46" s="23" t="n">
+      <c r="S46" s="23" t="n">
         <v>124</v>
       </c>
-      <c r="W46" s="23" t="s">
+      <c r="X46" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="X46" s="23" t="n">
+      <c r="Y46" s="23" t="n">
         <v>67</v>
       </c>
-      <c r="Z46" s="23" t="s">
+      <c r="AA46" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="AA46" s="23" t="n">
+      <c r="AB46" s="23" t="n">
         <v>9055</v>
       </c>
     </row>
@@ -19418,40 +19586,44 @@
       <c r="F47" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="G47" s="23" t="n">
+        <f aca="false">G46+F47</f>
+        <v>21946</v>
+      </c>
+      <c r="I47" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="I47" s="23" t="n">
+      <c r="J47" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="L47" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="L47" s="23" t="n">
+      <c r="M47" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="N47" s="23" t="s">
+      <c r="O47" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="O47" s="23" t="n">
+      <c r="P47" s="23" t="n">
         <v>37</v>
       </c>
-      <c r="Q47" s="23" t="s">
+      <c r="R47" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="R47" s="23" t="n">
+      <c r="S47" s="23" t="n">
         <v>127</v>
       </c>
-      <c r="W47" s="23" t="s">
+      <c r="X47" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="X47" s="23" t="n">
+      <c r="Y47" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="Z47" s="23" t="s">
+      <c r="AA47" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="AA47" s="23" t="n">
+      <c r="AB47" s="23" t="n">
         <v>89</v>
       </c>
     </row>
@@ -19462,40 +19634,44 @@
       <c r="F48" s="23" t="n">
         <v>31</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="G48" s="23" t="n">
+        <f aca="false">G47+F48</f>
+        <v>21977</v>
+      </c>
+      <c r="I48" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="I48" s="23" t="n">
+      <c r="J48" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="L48" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="L48" s="23" t="n">
+      <c r="M48" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="N48" s="23" t="s">
+      <c r="O48" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="O48" s="23" t="n">
+      <c r="P48" s="23" t="n">
         <v>145</v>
       </c>
-      <c r="Q48" s="23" t="s">
+      <c r="R48" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="R48" s="23" t="n">
+      <c r="S48" s="23" t="n">
         <v>43</v>
       </c>
-      <c r="W48" s="23" t="s">
+      <c r="X48" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="X48" s="23" t="n">
+      <c r="Y48" s="23" t="n">
         <v>463</v>
       </c>
-      <c r="Z48" s="23" t="s">
+      <c r="AA48" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="AA48" s="23" t="n">
+      <c r="AB48" s="23" t="n">
         <v>106</v>
       </c>
     </row>
@@ -19506,40 +19682,44 @@
       <c r="F49" s="23" t="n">
         <v>3476</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="G49" s="23" t="n">
+        <f aca="false">G48+F49</f>
+        <v>25453</v>
+      </c>
+      <c r="I49" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="I49" s="23" t="n">
+      <c r="J49" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="L49" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="L49" s="23" t="n">
+      <c r="M49" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="N49" s="23" t="s">
+      <c r="O49" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="O49" s="23" t="n">
+      <c r="P49" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="Q49" s="23" t="s">
+      <c r="R49" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="R49" s="23" t="n">
+      <c r="S49" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="W49" s="23" t="s">
+      <c r="X49" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="X49" s="23" t="n">
+      <c r="Y49" s="23" t="n">
         <v>54</v>
       </c>
-      <c r="Z49" s="23" t="s">
+      <c r="AA49" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AA49" s="23" t="n">
+      <c r="AB49" s="23" t="n">
         <v>32</v>
       </c>
     </row>
@@ -19550,40 +19730,44 @@
       <c r="F50" s="23" t="n">
         <v>463</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="G50" s="23" t="n">
+        <f aca="false">G49+F50</f>
+        <v>25916</v>
+      </c>
+      <c r="I50" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I50" s="23" t="n">
+      <c r="J50" s="23" t="n">
         <v>33</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="L50" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="L50" s="23" t="n">
+      <c r="M50" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="N50" s="23" t="s">
+      <c r="O50" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="O50" s="23" t="n">
+      <c r="P50" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="Q50" s="23" t="s">
+      <c r="R50" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="R50" s="23" t="n">
+      <c r="S50" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="W50" s="23" t="s">
+      <c r="X50" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="X50" s="23" t="n">
+      <c r="Y50" s="23" t="n">
         <v>198</v>
       </c>
-      <c r="Z50" s="23" t="s">
+      <c r="AA50" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AA50" s="23" t="n">
+      <c r="AB50" s="23" t="n">
         <v>34</v>
       </c>
     </row>
@@ -19594,40 +19778,44 @@
       <c r="F51" s="23" t="n">
         <v>336</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="G51" s="23" t="n">
+        <f aca="false">G50+F51</f>
+        <v>26252</v>
+      </c>
+      <c r="I51" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="I51" s="23" t="n">
+      <c r="J51" s="23" t="n">
         <v>80</v>
       </c>
-      <c r="K51" s="23" t="s">
+      <c r="L51" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="L51" s="23" t="n">
+      <c r="M51" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="N51" s="23" t="s">
+      <c r="O51" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="O51" s="23" t="n">
+      <c r="P51" s="23" t="n">
         <v>142</v>
       </c>
-      <c r="Q51" s="23" t="s">
+      <c r="R51" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="R51" s="23" t="n">
+      <c r="S51" s="23" t="n">
         <v>94</v>
       </c>
-      <c r="W51" s="23" t="s">
+      <c r="X51" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="X51" s="23" t="n">
+      <c r="Y51" s="23" t="n">
         <v>3174</v>
       </c>
-      <c r="Z51" s="23" t="s">
+      <c r="AA51" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA51" s="23" t="n">
+      <c r="AB51" s="23" t="n">
         <v>109</v>
       </c>
     </row>
@@ -19638,40 +19826,44 @@
       <c r="F52" s="23" t="n">
         <v>198</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="G52" s="23" t="n">
+        <f aca="false">G51+F52</f>
+        <v>26450</v>
+      </c>
+      <c r="I52" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="I52" s="23" t="n">
+      <c r="J52" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="L52" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="L52" s="23" t="n">
+      <c r="M52" s="23" t="n">
         <v>81</v>
       </c>
-      <c r="N52" s="23" t="s">
+      <c r="O52" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="O52" s="23" t="n">
+      <c r="P52" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="Q52" s="23" t="s">
+      <c r="R52" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="R52" s="23" t="n">
+      <c r="S52" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="W52" s="23" t="s">
+      <c r="X52" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="X52" s="23" t="n">
+      <c r="Y52" s="23" t="n">
         <v>3476</v>
       </c>
-      <c r="Z52" s="23" t="s">
+      <c r="AA52" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AA52" s="23" t="n">
+      <c r="AB52" s="23" t="n">
         <v>233</v>
       </c>
     </row>
@@ -19682,40 +19874,44 @@
       <c r="F53" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="G53" s="23" t="n">
+        <f aca="false">G52+F53</f>
+        <v>26467</v>
+      </c>
+      <c r="I53" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="I53" s="23" t="n">
+      <c r="J53" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="L53" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="L53" s="23" t="n">
+      <c r="M53" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="N53" s="23" t="s">
+      <c r="O53" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="O53" s="23" t="n">
+      <c r="P53" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="Q53" s="23" t="s">
+      <c r="R53" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="R53" s="23" t="n">
+      <c r="S53" s="23" t="n">
         <v>145</v>
       </c>
-      <c r="W53" s="23" t="s">
+      <c r="X53" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="X53" s="23" t="n">
+      <c r="Y53" s="23" t="n">
         <v>1637</v>
       </c>
-      <c r="Z53" s="23" t="s">
+      <c r="AA53" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AA53" s="23" t="n">
+      <c r="AB53" s="23" t="n">
         <v>19</v>
       </c>
     </row>
@@ -19726,40 +19922,44 @@
       <c r="F54" s="23" t="n">
         <v>67</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="G54" s="23" t="n">
+        <f aca="false">G53+F54</f>
+        <v>26534</v>
+      </c>
+      <c r="I54" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="I54" s="23" t="n">
+      <c r="J54" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="K54" s="23" t="s">
+      <c r="L54" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="L54" s="23" t="n">
+      <c r="M54" s="23" t="n">
         <v>36</v>
       </c>
-      <c r="N54" s="23" t="s">
+      <c r="O54" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="O54" s="23" t="n">
+      <c r="P54" s="23" t="n">
         <v>44</v>
       </c>
-      <c r="Q54" s="23" t="s">
+      <c r="R54" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="R54" s="23" t="n">
+      <c r="S54" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="W54" s="23" t="s">
+      <c r="X54" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="X54" s="23" t="n">
+      <c r="Y54" s="23" t="n">
         <v>31</v>
       </c>
-      <c r="Z54" s="23" t="s">
+      <c r="AA54" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AA54" s="23" t="n">
+      <c r="AB54" s="23" t="n">
         <v>192</v>
       </c>
     </row>
@@ -19770,34 +19970,38 @@
       <c r="F55" s="23" t="n">
         <v>1637</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="G55" s="23" t="n">
+        <f aca="false">G54+F55</f>
+        <v>28171</v>
+      </c>
+      <c r="I55" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="I55" s="23" t="n">
+      <c r="J55" s="23" t="n">
         <v>65</v>
       </c>
-      <c r="K55" s="23" t="s">
+      <c r="L55" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="L55" s="23" t="n">
+      <c r="M55" s="23" t="n">
         <v>45</v>
       </c>
-      <c r="N55" s="23" t="s">
+      <c r="O55" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="O55" s="23" t="n">
+      <c r="P55" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="Q55" s="23" t="s">
+      <c r="R55" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="R55" s="23" t="n">
+      <c r="S55" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="W55" s="23" t="s">
+      <c r="X55" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="X55" s="23" t="n">
+      <c r="Y55" s="23" t="n">
         <v>1440</v>
       </c>
     </row>
@@ -19808,34 +20012,38 @@
       <c r="F56" s="23" t="n">
         <v>1440</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="G56" s="23" t="n">
+        <f aca="false">G55+F56</f>
+        <v>29611</v>
+      </c>
+      <c r="I56" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="I56" s="23" t="n">
+      <c r="J56" s="23" t="n">
         <v>97</v>
       </c>
-      <c r="K56" s="23" t="s">
+      <c r="L56" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="L56" s="23" t="n">
+      <c r="M56" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="N56" s="23" t="s">
+      <c r="O56" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="O56" s="23" t="n">
+      <c r="P56" s="23" t="n">
         <v>39</v>
       </c>
-      <c r="Q56" s="23" t="s">
+      <c r="R56" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="R56" s="23" t="n">
+      <c r="S56" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="W56" s="23" t="s">
+      <c r="X56" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="X56" s="23" t="n">
+      <c r="Y56" s="23" t="n">
         <v>1735</v>
       </c>
     </row>
@@ -19846,164 +20054,168 @@
       <c r="F57" s="23" t="n">
         <v>1735</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="G57" s="23" t="n">
+        <f aca="false">G56+F57</f>
+        <v>31346</v>
+      </c>
+      <c r="I57" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="I57" s="23" t="n">
+      <c r="J57" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="K57" s="23" t="s">
+      <c r="L57" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="L57" s="23" t="n">
+      <c r="M57" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="N57" s="23" t="s">
+      <c r="O57" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="O57" s="23" t="n">
+      <c r="P57" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="Q57" s="23" t="s">
+      <c r="R57" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="R57" s="23" t="n">
+      <c r="S57" s="23" t="n">
         <v>27</v>
       </c>
-      <c r="W57" s="23" t="s">
+      <c r="X57" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="X57" s="23" t="n">
+      <c r="Y57" s="23" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="23" t="s">
+      <c r="I58" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="I58" s="23" t="n">
+      <c r="J58" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="L58" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="L58" s="23" t="n">
+      <c r="M58" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="N58" s="23" t="s">
+      <c r="O58" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="O58" s="23" t="n">
+      <c r="P58" s="23" t="n">
         <v>27</v>
       </c>
-      <c r="Q58" s="23" t="s">
+      <c r="R58" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="R58" s="23" t="n">
+      <c r="S58" s="23" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="23" t="s">
+      <c r="I59" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="I59" s="23" t="n">
+      <c r="J59" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="K59" s="23" t="s">
+      <c r="L59" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="L59" s="23" t="n">
+      <c r="M59" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="N59" s="23" t="s">
+      <c r="O59" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="O59" s="23" t="n">
+      <c r="P59" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="Q59" s="23" t="s">
+      <c r="R59" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="R59" s="23" t="n">
+      <c r="S59" s="23" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="23" t="s">
+      <c r="I60" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="I60" s="23" t="n">
+      <c r="J60" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="L60" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="L60" s="23" t="n">
+      <c r="M60" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="N60" s="23" t="s">
+      <c r="O60" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="O60" s="23" t="n">
+      <c r="P60" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="Q60" s="23" t="s">
+      <c r="R60" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="R60" s="23" t="n">
+      <c r="S60" s="23" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="23" t="s">
+      <c r="I61" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="I61" s="23" t="n">
+      <c r="J61" s="23" t="n">
         <v>5877</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="L61" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="L61" s="23" t="n">
+      <c r="M61" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="N61" s="23" t="s">
+      <c r="O61" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="O61" s="23" t="n">
+      <c r="P61" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="Q61" s="23" t="s">
+      <c r="R61" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="R61" s="23" t="n">
+      <c r="S61" s="23" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="23" t="s">
+      <c r="I62" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="I62" s="23" t="n">
+      <c r="J62" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="L62" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="L62" s="23" t="n">
+      <c r="M62" s="23" t="n">
         <v>2674</v>
       </c>
-      <c r="N62" s="23" t="s">
+      <c r="O62" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="O62" s="23" t="n">
+      <c r="P62" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="Q62" s="23" t="s">
+      <c r="R62" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="R62" s="23" t="n">
+      <c r="S62" s="23" t="n">
         <v>14</v>
       </c>
     </row>
@@ -20012,244 +20224,244 @@
         <f aca="false">SUM(F3:F61)</f>
         <v>31346</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="I63" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="I63" s="23" t="n">
+      <c r="J63" s="23" t="n">
         <v>46</v>
       </c>
-      <c r="K63" s="23" t="s">
+      <c r="L63" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="L63" s="23" t="n">
+      <c r="M63" s="23" t="n">
         <v>21</v>
       </c>
-      <c r="N63" s="23" t="s">
+      <c r="O63" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="O63" s="23" t="n">
+      <c r="P63" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="Q63" s="23" t="s">
+      <c r="R63" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="R63" s="23" t="n">
+      <c r="S63" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="X63" s="23" t="n">
-        <f aca="false">SUM(X3:X61)</f>
+      <c r="Y63" s="23" t="n">
+        <f aca="false">SUM(Y3:Y61)</f>
         <v>27868</v>
       </c>
-      <c r="AA63" s="23" t="n">
-        <f aca="false">SUM(AA3:AA61)</f>
+      <c r="AB63" s="23" t="n">
+        <f aca="false">SUM(AB3:AB61)</f>
         <v>27631</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F64" s="41" t="n">
-        <f aca="false">SUM(N9,I65,L68,O74,R74)</f>
+        <f aca="false">SUM(O9,J65,M68,P74,S74)</f>
         <v>31346</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="I64" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="I64" s="23" t="n">
+      <c r="J64" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="K64" s="23" t="s">
+      <c r="L64" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="L64" s="23" t="n">
+      <c r="M64" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="N64" s="23" t="s">
+      <c r="O64" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="O64" s="23" t="n">
+      <c r="P64" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="Q64" s="23" t="s">
+      <c r="R64" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="R64" s="23" t="n">
+      <c r="S64" s="23" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="41" t="n">
+      <c r="I65" s="41" t="n">
         <f aca="false">SUM(F9:F18)</f>
         <v>7524</v>
       </c>
-      <c r="I65" s="23" t="n">
-        <f aca="false">SUM(I22:I64)</f>
+      <c r="J65" s="23" t="n">
+        <f aca="false">SUM(J22:J64)</f>
         <v>7524</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="L65" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="L65" s="23" t="n">
+      <c r="M65" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="N65" s="23" t="s">
+      <c r="O65" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="O65" s="23" t="n">
+      <c r="P65" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="Q65" s="23" t="s">
+      <c r="R65" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="R65" s="23" t="n">
+      <c r="S65" s="23" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K66" s="23" t="s">
+      <c r="L66" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="L66" s="23" t="n">
+      <c r="M66" s="23" t="n">
         <v>1098</v>
       </c>
-      <c r="N66" s="23" t="s">
+      <c r="O66" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="O66" s="23" t="n">
+      <c r="P66" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="Q66" s="23" t="s">
+      <c r="R66" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="R66" s="23" t="n">
+      <c r="S66" s="23" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K67" s="23" t="s">
+      <c r="L67" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="L67" s="23" t="n">
+      <c r="M67" s="23" t="n">
         <v>406</v>
       </c>
-      <c r="N67" s="23" t="s">
+      <c r="O67" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="O67" s="23" t="n">
+      <c r="P67" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="Q67" s="23" t="s">
+      <c r="R67" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="R67" s="23" t="n">
+      <c r="S67" s="23" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K68" s="41" t="n">
+      <c r="L68" s="41" t="n">
         <f aca="false">SUM(F19:F30)</f>
         <v>4656</v>
       </c>
-      <c r="L68" s="23" t="n">
-        <f aca="false">SUM(L22:L67)</f>
+      <c r="M68" s="23" t="n">
+        <f aca="false">SUM(M22:M67)</f>
         <v>4656</v>
       </c>
-      <c r="N68" s="23" t="s">
+      <c r="O68" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="O68" s="23" t="n">
+      <c r="P68" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="Q68" s="23" t="s">
+      <c r="R68" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="R68" s="23" t="n">
+      <c r="S68" s="23" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N69" s="23" t="s">
+      <c r="O69" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="O69" s="23" t="n">
+      <c r="P69" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="Q69" s="23" t="s">
+      <c r="R69" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="R69" s="23" t="n">
+      <c r="S69" s="23" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N70" s="23" t="s">
+      <c r="O70" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="O70" s="23" t="n">
+      <c r="P70" s="23" t="n">
         <v>302</v>
       </c>
-      <c r="Q70" s="23" t="s">
+      <c r="R70" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="R70" s="23" t="n">
+      <c r="S70" s="23" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N71" s="23" t="s">
+      <c r="O71" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="O71" s="23" t="n">
+      <c r="P71" s="23" t="n">
         <v>2403</v>
       </c>
-      <c r="Q71" s="23" t="s">
+      <c r="R71" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="R71" s="23" t="n">
+      <c r="S71" s="23" t="n">
         <v>1637</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N72" s="23" t="s">
+      <c r="O72" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="O72" s="23" t="n">
+      <c r="P72" s="23" t="n">
         <v>2003</v>
       </c>
-      <c r="Q72" s="23" t="s">
+      <c r="R72" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="R72" s="23" t="n">
+      <c r="S72" s="23" t="n">
         <v>1440</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N73" s="23" t="s">
+      <c r="O73" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="O73" s="23" t="n">
+      <c r="P73" s="23" t="n">
         <v>342</v>
       </c>
-      <c r="Q73" s="23" t="s">
+      <c r="R73" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="R73" s="23" t="n">
+      <c r="S73" s="23" t="n">
         <v>1735</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N74" s="41" t="n">
+      <c r="O74" s="41" t="n">
         <f aca="false">SUM(F31:F43)</f>
         <v>6114</v>
       </c>
-      <c r="O74" s="23" t="n">
-        <f aca="false">SUM(O22:O73)</f>
+      <c r="P74" s="23" t="n">
+        <f aca="false">SUM(P22:P73)</f>
         <v>6114</v>
       </c>
-      <c r="Q74" s="41" t="n">
+      <c r="R74" s="41" t="n">
         <f aca="false">SUM(F44:F57)</f>
         <v>12714</v>
       </c>
-      <c r="R74" s="23" t="n">
-        <f aca="false">SUM(R22:R73)</f>
+      <c r="S74" s="23" t="n">
+        <f aca="false">SUM(S22:S73)</f>
         <v>12714</v>
       </c>
     </row>
